--- a/media/excel/data.xlsx
+++ b/media/excel/data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="17">
   <si>
     <t xml:space="preserve">name_user</t>
   </si>
@@ -34,19 +34,43 @@
     <t xml:space="preserve">kevin</t>
   </si>
   <si>
-    <t xml:space="preserve">Laurentina1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-76.25925273198507, 4.4784853333279475]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-76.86899394292257, 3.5195334529660314]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-76.59433573979757, 3.2947119593342977]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-75.99008769292257, 4.3579948778381965]</t>
+    <t xml:space="preserve">Valle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-76.514883, 3.831338]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-76.513767, 3.830257]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-76.512335, 3.831787]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-76.512748, 3.832146]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-76.51263, 3.832398]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-76.512946, 3.832708]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-76.513478, 3.83304]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-76.513853, 3.833457]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-76.514695, 3.833939]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-76.514921, 3.833977]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-76.515157, 3.832826]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-76.515478, 3.83258]</t>
   </si>
 </sst>
 </file>
@@ -163,16 +187,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.33"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -229,48 +250,151 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/media/excel/data.xlsx
+++ b/media/excel/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="34">
   <si>
     <t>name_user</t>
   </si>
@@ -37,6 +37,9 @@
     <t>Lote4</t>
   </si>
   <si>
+    <t>Feijoa</t>
+  </si>
+  <si>
     <t>[-76.519325, 3.832944]</t>
   </si>
   <si>
@@ -92,6 +95,27 @@
   </si>
   <si>
     <t>[-76.520194, 3.840324]</t>
+  </si>
+  <si>
+    <t>[-74.216168, 4.682281]</t>
+  </si>
+  <si>
+    <t>[-74.215103, 4.68332]</t>
+  </si>
+  <si>
+    <t>[-74.214537, 4.682647]</t>
+  </si>
+  <si>
+    <t>[-74.214749, 4.682454]</t>
+  </si>
+  <si>
+    <t>[-74.215162, 4.682871]</t>
+  </si>
+  <si>
+    <t>[-74.215938, 4.682187]</t>
+  </si>
+  <si>
+    <t>[-74.216174, 4.682297]</t>
   </si>
 </sst>
 </file>
@@ -449,7 +473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -474,7 +498,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -485,7 +509,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -496,7 +520,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -507,7 +531,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -518,7 +542,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -529,7 +553,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -540,7 +564,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -551,7 +575,7 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -562,7 +586,7 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -573,7 +597,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -584,7 +608,7 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -595,7 +619,7 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -606,7 +630,7 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -617,7 +641,7 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -628,7 +652,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -639,7 +663,7 @@
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -650,7 +674,7 @@
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -661,7 +685,7 @@
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -672,7 +696,7 @@
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -683,7 +707,7 @@
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -694,7 +718,7 @@
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -705,7 +729,95 @@
         <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/media/excel/data.xlsx
+++ b/media/excel/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="39">
   <si>
     <t>name_user</t>
   </si>
@@ -40,6 +40,9 @@
     <t>Feijoa</t>
   </si>
   <si>
+    <t>LoterTest</t>
+  </si>
+  <si>
     <t>[-76.519325, 3.832944]</t>
   </si>
   <si>
@@ -116,6 +119,18 @@
   </si>
   <si>
     <t>[-74.216174, 4.682297]</t>
+  </si>
+  <si>
+    <t>[-76.514832, 3.823464]</t>
+  </si>
+  <si>
+    <t>[-76.515535, 3.82237]</t>
+  </si>
+  <si>
+    <t>[-76.515025, 3.822177]</t>
+  </si>
+  <si>
+    <t>[-76.514333, 3.823264]</t>
   </si>
 </sst>
 </file>
@@ -473,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -498,7 +513,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -509,7 +524,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -520,7 +535,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -531,7 +546,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -542,7 +557,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -553,7 +568,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -564,7 +579,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -575,7 +590,7 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -586,7 +601,7 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -597,7 +612,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -608,7 +623,7 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -619,7 +634,7 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -630,7 +645,7 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -641,7 +656,7 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -652,7 +667,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -663,7 +678,7 @@
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -674,7 +689,7 @@
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -685,7 +700,7 @@
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -696,7 +711,7 @@
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -707,7 +722,7 @@
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -718,7 +733,7 @@
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -729,7 +744,7 @@
         <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -740,7 +755,7 @@
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -751,7 +766,7 @@
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -762,7 +777,7 @@
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -773,7 +788,7 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -784,7 +799,7 @@
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -795,7 +810,7 @@
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -806,7 +821,7 @@
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -817,7 +832,62 @@
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/media/excel/data.xlsx
+++ b/media/excel/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="75">
   <si>
     <t>name_user</t>
   </si>
@@ -43,6 +43,18 @@
     <t>LoterTest</t>
   </si>
   <si>
+    <t>LoteEste1</t>
+  </si>
+  <si>
+    <t>LoteOeste1</t>
+  </si>
+  <si>
+    <t>LoteO2</t>
+  </si>
+  <si>
+    <t>LoteEste2</t>
+  </si>
+  <si>
     <t>[-76.519325, 3.832944]</t>
   </si>
   <si>
@@ -131,6 +143,102 @@
   </si>
   <si>
     <t>[-76.514333, 3.823264]</t>
+  </si>
+  <si>
+    <t>[-76.147512, 4.022681]</t>
+  </si>
+  <si>
+    <t>[-76.147622, 4.023342]</t>
+  </si>
+  <si>
+    <t>[-76.147316, 4.023519]</t>
+  </si>
+  <si>
+    <t>[-76.146651, 4.023008]</t>
+  </si>
+  <si>
+    <t>[-76.146535, 4.022826]</t>
+  </si>
+  <si>
+    <t>[-76.146707, 4.022342]</t>
+  </si>
+  <si>
+    <t>[-76.147002, 4.022095]</t>
+  </si>
+  <si>
+    <t>[-76.147268, 4.022347]</t>
+  </si>
+  <si>
+    <t>[-76.361736, 4.093599]</t>
+  </si>
+  <si>
+    <t>[-76.361851, 4.0933]</t>
+  </si>
+  <si>
+    <t>[-76.361815, 4.093104]</t>
+  </si>
+  <si>
+    <t>[-76.361281, 4.092766]</t>
+  </si>
+  <si>
+    <t>[-76.361018, 4.093044]</t>
+  </si>
+  <si>
+    <t>[-76.360702, 4.093215]</t>
+  </si>
+  <si>
+    <t>[-76.360635, 4.093496]</t>
+  </si>
+  <si>
+    <t>[-76.360439, 4.093897]</t>
+  </si>
+  <si>
+    <t>[-76.360715, 4.094146]</t>
+  </si>
+  <si>
+    <t>[-76.361182, 4.094026]</t>
+  </si>
+  <si>
+    <t>[-76.361576, 4.093758]</t>
+  </si>
+  <si>
+    <t>[-76.276585, 4.488456]</t>
+  </si>
+  <si>
+    <t>[-76.277438, 4.487643]</t>
+  </si>
+  <si>
+    <t>[-76.277105, 4.487242]</t>
+  </si>
+  <si>
+    <t>[-76.275941, 4.486617]</t>
+  </si>
+  <si>
+    <t>[-76.275035, 4.487975]</t>
+  </si>
+  <si>
+    <t>[-76.275045, 4.489269]</t>
+  </si>
+  <si>
+    <t>[-76.275271, 4.490087]</t>
+  </si>
+  <si>
+    <t>[-76.276054, 4.490093]</t>
+  </si>
+  <si>
+    <t>[-76.276472, 4.489087]</t>
+  </si>
+  <si>
+    <t>[-76.17376, 3.332577]</t>
+  </si>
+  <si>
+    <t>[-76.17376, 3.334184]</t>
+  </si>
+  <si>
+    <t>[-76.170981, 3.334184]</t>
+  </si>
+  <si>
+    <t>[-76.170981, 3.332577]</t>
   </si>
 </sst>
 </file>
@@ -488,7 +596,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,7 +621,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -524,7 +632,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -535,7 +643,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -546,7 +654,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -557,7 +665,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -568,7 +676,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -579,7 +687,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -590,7 +698,7 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -601,7 +709,7 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -612,7 +720,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -623,7 +731,7 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -634,7 +742,7 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -645,7 +753,7 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -656,7 +764,7 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -667,7 +775,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -678,7 +786,7 @@
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -689,7 +797,7 @@
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -700,7 +808,7 @@
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -711,7 +819,7 @@
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -722,7 +830,7 @@
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -733,7 +841,7 @@
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -744,7 +852,7 @@
         <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -755,7 +863,7 @@
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -766,7 +874,7 @@
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -777,7 +885,7 @@
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -788,7 +896,7 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -799,7 +907,7 @@
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -810,7 +918,7 @@
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -821,7 +929,7 @@
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -832,7 +940,7 @@
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -843,7 +951,7 @@
         <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -854,7 +962,7 @@
         <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -865,7 +973,7 @@
         <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -876,7 +984,7 @@
         <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -887,7 +995,403 @@
         <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>35</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>3</v>
+      </c>
+      <c r="B61" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>3</v>
+      </c>
+      <c r="B66" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>3</v>
+      </c>
+      <c r="B70" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>3</v>
+      </c>
+      <c r="B72" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
